--- a/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
+++ b/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S\TMS\TMS_API\DMS.API\Template\TempTrinhKy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S\New\TMS_PLX\TMS_API\DMS.API\Template\TempTrinhKy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CF5ECE-69FE-4B5B-8BD2-5E7430B3636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E1F8A-A3A2-4657-AAD8-6F7CDDD8979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
   </bookViews>
@@ -653,6 +653,48 @@
     <xf numFmtId="10" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,48 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DFD47-B1DE-4462-AE31-997A9592707F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1046,128 +1046,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="2"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="5"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.8">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:9" ht="16.2">
       <c r="A10" s="9" t="s">
@@ -1214,7 +1214,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="35"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="16.2">
       <c r="A12" s="20">
@@ -1233,7 +1233,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="16.2">
       <c r="A13" s="20">
@@ -1252,7 +1252,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="35"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="39"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" ht="16.2">
       <c r="A14" s="20">
@@ -1271,7 +1271,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="35"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="40"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="16.2">
       <c r="A15" s="9" t="s">
@@ -1305,7 +1305,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="35"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:9" ht="16.2">
       <c r="A17" s="20">
@@ -1324,7 +1324,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="35"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="20">
@@ -1343,7 +1343,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="35"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:9" ht="16.2">
       <c r="A19" s="20">
@@ -1362,7 +1362,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="35"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:9" ht="16.2">
       <c r="A20" s="24"/>
@@ -1389,43 +1389,43 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" ht="15.6">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:9" ht="49.8" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="32.4" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="16.8">
       <c r="A25" s="33"/>
@@ -1442,12 +1442,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
@@ -1458,11 +1457,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
+++ b/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\TempTrinhKy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB91B2-DB08-4D56-88BE-43E6E63DAF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B729C-86C6-4B54-A553-2F971574B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
   </bookViews>
@@ -76,26 +76,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{5BC2C7B9-3436-407F-8279-2EC3EB3F3A27}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-          </rPr>
-          <t>PC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-          </rPr>
-          <t xml:space="preserve">
-Tỷ lệ = ( giá mới - giá cũ)/giá cũ</t>
         </r>
       </text>
     </comment>
@@ -171,9 +151,6 @@
     <t>TẬP ĐOÀN XĂNG DẦU VIỆT NAM</t>
   </si>
   <si>
-    <t xml:space="preserve">           CỘNG HOÀ XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
-  </si>
-  <si>
     <t>TT</t>
   </si>
   <si>
@@ -253,9 +230,45 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">BẢNG KÊ KHAI MỨC GIÁ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.  Kê khai giá bán xăng dầu trong nước:</t>
+  </si>
+  <si>
+    <t>Giá kê 
+khai kỳ này</t>
+  </si>
+  <si>
+    <t>Thời điểm điều chỉnh giá</t>
+  </si>
+  <si>
+    <t>Mức 
+tăng/ giảm so với kỳ liền kề trước</t>
+  </si>
+  <si>
+    <t>Tỷ lệ
+tăng/ giảm so với kỳ liền kề trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Căn cứ để điều chỉnh giá bán:</t>
+  </si>
+  <si>
+    <t>+ Giá bán lẻ của Công ty Xăng dầu Nghệ An được áp dụng theo quyết định số 601/PLX-QĐ-TGĐ ngày 04/7/2024 của Tổng giám đốc Tập đoàn xăng dầu Việt Nam về việc ban hành danh mục địa bàn vùng 2 và tình hình thị trường xăng dầu trên địa bàn Nghệ An, Hà Tĩnh. Giá bán xăng dầu được tăng thêm tối đa không quá 2 % so với giá cơ sở công bố tại cùng thời điểm.</t>
+  </si>
+  <si>
+    <t>4. Giá bán đã bao gồm 10% thuế GTGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. </t>
+  </si>
+  <si>
+    <t>Giá bán buôn tại kho Bến Thủy, Nghi Hương của Công ty Xăng dầu Nghệ An:</t>
+  </si>
+  <si>
+    <t>CỘNG HOÀ XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -263,7 +276,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">         Đ</t>
+      <t>Đ</t>
     </r>
     <r>
       <rPr>
@@ -286,47 +299,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">BẢNG KÊ KHAI MỨC GIÁ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.  Kê khai giá bán xăng dầu trong nước:</t>
-  </si>
-  <si>
-    <t>Giá kê 
-khai kỳ liền kề trước (theo VB số 0996/PLXNA-KDXD ngày 17/04/2025)</t>
-  </si>
-  <si>
-    <t>Giá kê 
-khai kỳ này</t>
-  </si>
-  <si>
-    <t>Thời điểm điều chỉnh giá</t>
-  </si>
-  <si>
-    <t>Mức 
-tăng/ giảm so với kỳ liền kề trước</t>
-  </si>
-  <si>
-    <t>Tỷ lệ
-tăng/ giảm so với kỳ liền kề trước</t>
-  </si>
-  <si>
-    <t>A. Giá bán lẻ quy định tại Cửa hàng Xăng dầu bán lẻ trực thuộc, các CHXD của TNNQ bán lẻ thuộc hệ thống phân phối của Công ty Xăng dầu Nghệ An:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Căn cứ để điều chỉnh giá bán:</t>
-  </si>
-  <si>
-    <t>+ Giá bán lẻ của Công ty Xăng dầu Nghệ An được áp dụng theo quyết định số 601/PLX-QĐ-TGĐ ngày 04/7/2024 của Tổng giám đốc Tập đoàn xăng dầu Việt Nam về việc ban hành danh mục địa bàn vùng 2 và tình hình thị trường xăng dầu trên địa bàn Nghệ An, Hà Tĩnh. Giá bán xăng dầu được tăng thêm tối đa không quá 2 % so với giá cơ sở công bố tại cùng thời điểm.</t>
-  </si>
-  <si>
-    <t>4. Giá bán đã bao gồm 10% thuế GTGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. </t>
-  </si>
-  <si>
-    <t>Giá bán buôn tại kho Bến Thủy, Nghi Hương của Công ty Xăng dầu Nghệ An:</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Giá bán lẻ quy định tại Cửa hàng Xăng dầu bán lẻ trực thuộc, các CHXD của TNNQ bán lẻ thuộc hệ thống phân phối của Công ty Xăng dầu Nghệ An:</t>
   </si>
 </sst>
 </file>
@@ -619,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,179 +633,190 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DFD47-B1DE-4462-AE31-997A9592707F}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,529 +1149,518 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A6" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25" t="s">
+      <c r="B7" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="80.25" customHeight="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="27" t="s">
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="80.25" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
+      <c r="H8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="I8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1">
       <c r="A13" s="6">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1">
       <c r="A14" s="6">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
       <c r="A19" s="6">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="A20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A21" s="40">
+      <c r="A21" s="20">
         <v>1</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="D21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A22" s="27">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A22" s="49">
-        <v>2</v>
-      </c>
-      <c r="B22" s="41" t="s">
+      <c r="C22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="D22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="71"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A23" s="27">
+        <v>3</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A23" s="49">
-        <v>3</v>
-      </c>
-      <c r="B23" s="41" t="s">
+      <c r="C23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="71"/>
+    </row>
+    <row r="24" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A24" s="27">
+        <v>4</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="51"/>
-    </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="49">
-        <v>4</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="53"/>
+      <c r="C24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="A27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="1:10" ht="51.75" customHeight="1">
+      <c r="A28" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
+      <c r="A30" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B15:J15"/>
+  <mergeCells count="29">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1697,10 +1673,23 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="G21:G24"/>
     <mergeCell ref="J21:J24"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="J11:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
+++ b/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\TempTrinhKy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B729C-86C6-4B54-A553-2F971574B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89925321-FD15-439F-BD20-8F30A59AC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,11 +340,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -469,11 +464,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
     </font>
     <font>
       <sz val="12"/>
@@ -595,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,9 +596,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,99 +605,135 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,66 +745,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,32 +772,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DFD47-B1DE-4462-AE31-997A9592707F}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,164 +1137,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="80.25" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="59"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="2">
@@ -1316,366 +1303,351 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="64"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="65"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="65"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="66"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="64"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="65"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="65"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="66"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="70"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A22" s="27">
+      <c r="A22" s="24">
         <v>2</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="71"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A23" s="27">
+      <c r="A23" s="24">
         <v>3</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="71"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="27">
+      <c r="A24" s="24">
         <v>4</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="72"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B9:J9"/>
@@ -1690,6 +1662,21 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
+++ b/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\TempTrinhKy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89925321-FD15-439F-BD20-8F30A59AC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E828FE-6E83-45DF-83CA-78C0BC0D70EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,30 +206,6 @@
     <t>Vùng thị trường còn lại</t>
   </si>
   <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ÔNG TY XĂNG DẦU NGHỆ A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">BẢNG KÊ KHAI MỨC GIÁ </t>
   </si>
   <si>
@@ -254,16 +230,10 @@
     <t xml:space="preserve"> 3. Căn cứ để điều chỉnh giá bán:</t>
   </si>
   <si>
-    <t>+ Giá bán lẻ của Công ty Xăng dầu Nghệ An được áp dụng theo quyết định số 601/PLX-QĐ-TGĐ ngày 04/7/2024 của Tổng giám đốc Tập đoàn xăng dầu Việt Nam về việc ban hành danh mục địa bàn vùng 2 và tình hình thị trường xăng dầu trên địa bàn Nghệ An, Hà Tĩnh. Giá bán xăng dầu được tăng thêm tối đa không quá 2 % so với giá cơ sở công bố tại cùng thời điểm.</t>
-  </si>
-  <si>
     <t>4. Giá bán đã bao gồm 10% thuế GTGT</t>
   </si>
   <si>
     <t xml:space="preserve">B. </t>
-  </si>
-  <si>
-    <t>Giá bán buôn tại kho Bến Thủy, Nghi Hương của Công ty Xăng dầu Nghệ An:</t>
   </si>
   <si>
     <t>CỘNG HOÀ XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
@@ -302,7 +272,16 @@
     <t>A</t>
   </si>
   <si>
-    <t>Giá bán lẻ quy định tại Cửa hàng Xăng dầu bán lẻ trực thuộc, các CHXD của TNNQ bán lẻ thuộc hệ thống phân phối của Công ty Xăng dầu Nghệ An:</t>
+    <t>CÔNG TY TNHH MTV PETROLIMEX NGHỆ AN</t>
+  </si>
+  <si>
+    <t>Giá bán lẻ quy định tại Cửa hàng Xăng dầu bán lẻ trực thuộc, các CHXD của TNNQ bán lẻ thuộc hệ thống phân phối của Công ty TNHH MTV Petrolimex Nghệ An:</t>
+  </si>
+  <si>
+    <t>Giá bán buôn tại kho Bến Thủy, Nghi Hương của Công ty TNHH MTV Petrolimex Nghệ An:</t>
+  </si>
+  <si>
+    <t>+ Giá bán lẻ của Công ty Xăng dầu Nghệ An (nay là Công ty TNHH MTV Petrolimex Nghệ An) được áp dụng theo quyết định số 630/PLX-QĐ-TGĐ ngày 03/7/2025 của Tổng giám đốc Tập đoàn xăng dầu Việt Nam về việc ban hành danh mục địa bàn vùng 2 và tình hình thị trường xăng dầu trên địa bàn Nghệ An, Hà Tĩnh. Giá bán xăng dầu được tăng thêm tối đa không quá 2 % so với giá cơ sở công bố tại cùng thời điểm.</t>
   </si>
 </sst>
 </file>
@@ -312,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,13 +334,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -620,190 +592,190 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DFD47-B1DE-4462-AE31-997A9592707F}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,173 +1109,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="E2" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47" t="s">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="80.25" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="17"/>
       <c r="F8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1">
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" ht="0.75" hidden="1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" hidden="1" customHeight="1">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1311,19 +1283,19 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="21"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1">
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" hidden="1" customHeight="1">
       <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1331,19 +1303,19 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="21"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1">
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" hidden="1" customHeight="1">
       <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1351,19 +1323,19 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="71"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="21"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1">
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" hidden="1" customHeight="1">
       <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1371,26 +1343,26 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="72"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="21"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="63"/>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1">
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" hidden="1" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="2">
@@ -1399,7 +1371,7 @@
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1407,10 +1379,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="70"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="21"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="61"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1">
       <c r="A17" s="5">
@@ -1419,7 +1391,7 @@
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1427,10 +1399,10 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="71"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="21"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="62"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
       <c r="A18" s="5">
@@ -1439,7 +1411,7 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1447,10 +1419,10 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="21"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
       <c r="A19" s="5">
@@ -1459,7 +1431,7 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1467,26 +1439,26 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="21"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="63"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+        <v>27</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
       <c r="A21" s="18">
@@ -1503,10 +1475,10 @@
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="64"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="67"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
       <c r="A22" s="24">
@@ -1523,10 +1495,10 @@
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="65"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="21"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="68"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1">
       <c r="A23" s="24">
@@ -1543,10 +1515,10 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="21"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="68"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1">
       <c r="A24" s="24">
@@ -1563,10 +1535,10 @@
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="21"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="69"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="25"/>
@@ -1593,61 +1565,76 @@
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" ht="51.75" customHeight="1">
+      <c r="A28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75">
+      <c r="A30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-    </row>
-    <row r="28" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A28" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B9:J9"/>
@@ -1662,21 +1649,6 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
